--- a/src/test/resources/testdata/batch17excel.xlsx
+++ b/src/test/resources/testdata/batch17excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babar\OneDrive\Documents\Syntax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17761C64-D8E2-4D01-9447-0B4C311F3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4662ED-D6BA-4CDB-A30E-31C236FD49DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>firstName</t>
   </si>
@@ -43,43 +43,40 @@
     <t>confirmPassword</t>
   </si>
   <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>saif</t>
+  </si>
+  <si>
+    <t>Hum@nhrm123</t>
+  </si>
+  <si>
+    <t>aman</t>
+  </si>
+  <si>
+    <t>adrian</t>
+  </si>
+  <si>
+    <t>C:\Users\babar\OneDrive\Desktop\syntaxlogowhite.png</t>
+  </si>
+  <si>
     <t>nafiseh</t>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>saif</t>
-  </si>
-  <si>
-    <t>nafi123</t>
-  </si>
-  <si>
-    <t>Hum@nhrm123</t>
-  </si>
-  <si>
     <t>muhayo</t>
   </si>
   <si>
-    <t xml:space="preserve">ms </t>
-  </si>
-  <si>
-    <t>aman</t>
-  </si>
-  <si>
-    <t>muha123</t>
-  </si>
-  <si>
     <t>raihana</t>
   </si>
   <si>
-    <t>adrian</t>
-  </si>
-  <si>
-    <t>rai123</t>
-  </si>
-  <si>
-    <t>C:\Users\babar\OneDrive\Desktop\syntaxlogowhite.png</t>
+    <t>nafi333</t>
+  </si>
+  <si>
+    <t>muha333</t>
+  </si>
+  <si>
+    <t>rai333</t>
   </si>
 </sst>
 </file>
@@ -626,7 +623,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -664,71 +661,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
